--- a/assets/spreadsheets/template/TIME_SHEET_SUMMARY.xlsx
+++ b/assets/spreadsheets/template/TIME_SHEET_SUMMARY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PhpTrial\assets\spreadsheets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EBCE3B-BB87-4D93-8B1F-C237FBB55920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA56BF2-48C6-4C95-86DA-76F5C93E2352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{7A662600-E61D-454A-A014-CFB3ABF949DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7A662600-E61D-454A-A014-CFB3ABF949DC}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERN_ID" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>WEEKLY TIME SHEET SUMMARY</t>
   </si>
@@ -50,12 +50,15 @@
   <si>
     <t>TOTAL HOURS</t>
   </si>
+  <si>
+    <t>DISPLAY HOURS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +82,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +109,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,21 +141,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -148,72 +168,34 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA01D20-CE81-4DD4-8E02-90318BE3FB27}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,24 +524,27 @@
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -572,106 +557,125 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
